--- a/项目开发问题记录文档/Dasher开发问题汇总.xlsx
+++ b/项目开发问题记录文档/Dasher开发问题汇总.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2015-04-28" sheetId="1" r:id="rId1"/>
+    <sheet name="管理员模块" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>模块</t>
   </si>
@@ -24,10 +24,6 @@
     <t>问题描述</t>
   </si>
   <si>
-    <t>管理员模块-管理员登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>处理结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,6 +49,42 @@
   </si>
   <si>
     <t>管理员登陆，在服务端保存管理员的登陆状态（session）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取的账户信息中，密码和密钥不能传递到前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不为空及合法性的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者添加为登陆管理员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断管理员是否登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,10 +128,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -423,46 +461,96 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>9</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/项目开发问题记录文档/Dasher开发问题汇总.xlsx
+++ b/项目开发问题记录文档/Dasher开发问题汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>模块</t>
   </si>
@@ -28,71 +28,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>列表获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取的账户信息中，密码和密钥不能传递到前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不为空及合法性的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者添加为登陆管理员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断管理员是否登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理结果</t>
+  </si>
+  <si>
+    <t>管理员模块-管理员登陆</t>
+  </si>
+  <si>
     <t>确定接口的访问方式：GET或POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不处理</t>
   </si>
   <si>
     <t>账号不可为空的判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
   </si>
   <si>
     <t>密码不可为空，并且密码长度为6-30位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中文修改为英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口修改：返回值变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员登陆，在服务端保存管理员的登陆状态（session）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取的账户信息中，密码和密钥不能传递到前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数不为空及合法性的判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者添加为登陆管理员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断管理员是否登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +104,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,12 +152,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,7 +247,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -440,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,93 +552,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
